--- a/Attribution.xlsx
+++ b/Attribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soundscape Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.102\Cris\Foundry Modules\soundFxLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A30A9-18AD-4B28-8286-808B1202437C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B776DC7-BDA1-4636-A44A-813FF66A3CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6DB96F63-2716-42FA-A2B4-B16378163B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DB96F63-2716-42FA-A2B4-B16378163B66}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>This file contains a list of all the sounds included in this library</t>
   </si>
   <si>
-    <t>For each sound you will find its name (as used in this library), the location within the library, the creator of the sound, any changes that have been made, the license of the sound, whether the sound is non-commercial use only, the source of the sound</t>
-  </si>
-  <si>
     <t>License details:</t>
   </si>
   <si>
@@ -1444,6 +1441,9 @@
   </si>
   <si>
     <t>water-splash-4</t>
+  </si>
+  <si>
+    <t>For each sound you will find its name (as used in this library), the location within the library, the creator of the sound, any changes that have been made, the license of the sound and the source of the sound</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F010E6-3BF4-49E0-8D21-E19CCE71C309}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,30 +1852,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,23 +1899,23 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2047,47 +2047,47 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -2141,7 +2141,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -2161,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -2181,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -2201,7 +2201,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -2221,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -2241,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2261,7 +2261,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2281,7 +2281,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2318,16 +2318,16 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -2344,7 +2344,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2364,7 +2364,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -2384,7 +2384,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -2395,53 +2395,53 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2450,167 +2450,167 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
         <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -2704,7 +2704,7 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -2724,7 +2724,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -2744,18 +2744,18 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -2764,18 +2764,18 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -2784,18 +2784,18 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2804,18 +2804,18 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2824,18 +2824,18 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -2844,18 +2844,18 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -2864,18 +2864,18 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -2884,38 +2884,38 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
         <v>95</v>
-      </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -2924,24 +2924,24 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2950,58 +2950,58 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3010,18 +3010,18 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -3030,98 +3030,98 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" t="s">
         <v>290</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
         <v>291</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3130,18 +3130,18 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3150,18 +3150,18 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -3170,18 +3170,18 @@
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3221,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,73 +3246,73 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
         <v>309</v>
       </c>
-      <c r="C3" t="s">
-        <v>310</v>
-      </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
         <v>314</v>
-      </c>
-      <c r="D5" t="s">
-        <v>315</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3321,178 +3321,178 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>322</v>
-      </c>
-      <c r="B9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
         <v>324</v>
       </c>
-      <c r="B10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" t="s">
-        <v>325</v>
-      </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
         <v>328</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" t="s">
-        <v>329</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
         <v>330</v>
       </c>
-      <c r="B14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>331</v>
-      </c>
-      <c r="D14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
         <v>331</v>
-      </c>
-      <c r="D15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>331</v>
-      </c>
-      <c r="D16" t="s">
-        <v>329</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
         <v>335</v>
       </c>
-      <c r="B18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>336</v>
-      </c>
-      <c r="D18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
         <v>338</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>339</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -3501,78 +3501,78 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" t="s">
         <v>349</v>
       </c>
-      <c r="B24" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>350</v>
-      </c>
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
         <v>352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" t="s">
-        <v>353</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -3581,32 +3581,32 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
         <v>355</v>
-      </c>
-      <c r="B28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,33 +3631,33 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" t="s">
         <v>359</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>360</v>
-      </c>
-      <c r="C32" t="s">
-        <v>361</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" t="s">
         <v>363</v>
-      </c>
-      <c r="B33" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" t="s">
-        <v>364</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -3666,18 +3666,18 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" t="s">
         <v>366</v>
-      </c>
-      <c r="B34" t="s">
-        <v>360</v>
-      </c>
-      <c r="C34" t="s">
-        <v>367</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -3686,58 +3686,58 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" t="s">
         <v>379</v>
       </c>
-      <c r="B35" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
         <v>380</v>
-      </c>
-      <c r="D35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" t="s">
         <v>382</v>
       </c>
-      <c r="B36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
         <v>383</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" t="s">
         <v>385</v>
-      </c>
-      <c r="B37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" t="s">
-        <v>386</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -3746,38 +3746,38 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" t="s">
         <v>369</v>
       </c>
-      <c r="B39" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
         <v>370</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" t="s">
         <v>376</v>
-      </c>
-      <c r="B40" t="s">
-        <v>360</v>
-      </c>
-      <c r="C40" t="s">
-        <v>377</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -3786,58 +3786,58 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" t="s">
         <v>388</v>
-      </c>
-      <c r="B45" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" t="s">
-        <v>389</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
@@ -3846,18 +3846,18 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
@@ -3866,18 +3866,18 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
@@ -3886,18 +3886,18 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D48" t="s">
         <v>59</v>
@@ -3906,18 +3906,18 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -3926,18 +3926,18 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
         <v>59</v>
@@ -3946,18 +3946,18 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D51" t="s">
         <v>59</v>
@@ -3966,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4013,30 +4013,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4045,18 +4045,18 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4065,18 +4065,18 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4085,38 +4085,38 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" t="s">
         <v>416</v>
       </c>
-      <c r="B7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>417</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" t="s">
         <v>420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" t="s">
-        <v>421</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -4125,18 +4125,18 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -4145,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4192,13 +4192,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4207,35 +4207,35 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4244,18 +4244,18 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -4264,18 +4264,18 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -4284,7 +4284,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE2229-F728-4757-9195-DA6F43B8F755}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -4311,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,187 +4336,187 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>152</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
         <v>454</v>
       </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>455</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>457</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4541,130 +4541,130 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>164</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
         <v>172</v>
       </c>
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>173</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
         <v>175</v>
       </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>176</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>179</v>
-      </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>183</v>
-      </c>
-      <c r="B23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
         <v>186</v>
-      </c>
-      <c r="B24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" t="s">
-        <v>187</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
@@ -4673,18 +4673,18 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -4693,175 +4693,175 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
         <v>214</v>
       </c>
-      <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>215</v>
-      </c>
-      <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
         <v>217</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
         <v>223</v>
       </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>224</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
         <v>225</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
         <v>227</v>
       </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
         <v>228</v>
-      </c>
-      <c r="D31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
         <v>230</v>
-      </c>
-      <c r="B32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>233</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>236</v>
-      </c>
-      <c r="B35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
         <v>219</v>
-      </c>
-      <c r="D37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
         <v>239</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s">
-        <v>240</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
@@ -4870,38 +4870,38 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
         <v>242</v>
       </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
         <v>243</v>
-      </c>
-      <c r="D39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
         <v>245</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>246</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -4910,18 +4910,18 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
@@ -4930,58 +4930,58 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
         <v>201</v>
       </c>
-      <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
         <v>202</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
         <v>205</v>
       </c>
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
         <v>206</v>
-      </c>
-      <c r="D44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
@@ -4990,18 +4990,18 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
@@ -5010,78 +5010,78 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
         <v>248</v>
-      </c>
-      <c r="B48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
         <v>250</v>
       </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
         <v>251</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
         <v>268</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
         <v>59</v>
@@ -5090,18 +5090,18 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
         <v>59</v>
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5157,13 +5157,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
         <v>254</v>
       </c>
-      <c r="B2" t="s">
-        <v>255</v>
-      </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5172,58 +5172,58 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
         <v>259</v>
       </c>
-      <c r="B3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -5232,75 +5232,75 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -5309,18 +5309,18 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -5329,18 +5329,18 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -5349,18 +5349,18 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -5369,78 +5369,78 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
         <v>433</v>
       </c>
-      <c r="B17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>434</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>436</v>
-      </c>
-      <c r="B19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
         <v>439</v>
       </c>
-      <c r="B20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>440</v>
-      </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -5449,18 +5449,18 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" t="s">
         <v>445</v>
-      </c>
-      <c r="B22" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" t="s">
-        <v>446</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -5469,124 +5469,124 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" t="s">
         <v>448</v>
       </c>
-      <c r="B23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>449</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
         <v>451</v>
       </c>
-      <c r="B24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>452</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
         <v>459</v>
       </c>
-      <c r="B26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
         <v>460</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
         <v>462</v>
       </c>
-      <c r="B27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
         <v>463</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
